--- a/Исследование.xlsx
+++ b/Исследование.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\progs\Диплом Магистратура\Vibration_Analisys2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3D1A54-4D12-429B-B5D2-F36278C815F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36062762-FE57-4063-9C8F-5364E0629C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Эталонная авария</t>
   </si>
@@ -37,24 +37,6 @@
   </si>
   <si>
     <t>Лучший коэффициент детерминации</t>
-  </si>
-  <si>
-    <t>5_2</t>
-  </si>
-  <si>
-    <t>5_1</t>
-  </si>
-  <si>
-    <t>3_2</t>
-  </si>
-  <si>
-    <t>4_2</t>
-  </si>
-  <si>
-    <t>4_1</t>
-  </si>
-  <si>
-    <t>May</t>
   </si>
   <si>
     <t>Аварии</t>
@@ -496,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,15 +506,15 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
       </c>
       <c r="C2" s="3">
         <v>14</v>
@@ -540,272 +522,397 @@
       <c r="D2" s="9">
         <v>0.93589999999999995</v>
       </c>
-      <c r="I2" t="s">
-        <v>4</v>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="10"/>
-      <c r="I3" t="s">
-        <v>5</v>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.43709999999999999</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>50000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="10"/>
-      <c r="I4" t="s">
-        <v>6</v>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.3538</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10"/>
-      <c r="I5" t="s">
-        <v>7</v>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.1429</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="11"/>
-      <c r="I6" t="s">
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
         <v>8</v>
       </c>
+      <c r="D6" s="11">
+        <v>5.74E-2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
-      <c r="I7" t="s">
-        <v>9</v>
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.4289</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.2077</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.19739999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10">
+        <v>4.9099999999999998E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.56520000000000004</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.69640000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.9093</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
         <v>8</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10">
+        <v>0.1351</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="5">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5.79E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.1157</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.1605</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.57709999999999995</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.97970000000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="4">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4">
         <v>9</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10">
+        <v>1.6799999999999999E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="6">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.13750000000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>12</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.23019999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.66049999999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
         <v>7</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10">
+        <v>0.98440000000000005</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="5">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2.4899999999999999E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="6">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10">
+        <v>7.6300000000000007E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" s="10">
+        <v>5.11E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="4">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" s="10">
+        <v>6.8199999999999997E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="4">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4">
+        <v>10</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2.3999999999999998E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="11"/>
+      <c r="B31" s="5">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>10</v>
+      </c>
+      <c r="D31" s="11">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>MODE(C2:C31)</f>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
